--- a/Clab_2nd_part/Сортировки/Графики сортировок.xlsx
+++ b/Clab_2nd_part/Сортировки/Графики сортировок.xlsx
@@ -1,8 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="10710" windowHeight="4995"/>
   </bookViews>
@@ -18,12 +18,8 @@
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -73,7 +69,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -121,26 +117,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="ru-RU"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -216,7 +192,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-A772-443D-9F27-A9EBD36F685E}"/>
             </c:ext>
@@ -230,12 +206,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1206565455"/>
-        <c:axId val="1206560047"/>
+        <c:axId val="71022848"/>
+        <c:axId val="71032832"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1206565455"/>
+        <c:axId val="71022848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -278,7 +255,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1206560047"/>
+        <c:crossAx val="71032832"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -286,7 +263,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1206560047"/>
+        <c:axId val="71032832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -337,7 +314,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1206565455"/>
+        <c:crossAx val="71022848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -383,12 +360,12 @@
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
-  <c:userShapes r:id="rId3"/>
+  <c:userShapes r:id="rId1"/>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -443,26 +420,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="ru-RU"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -540,7 +497,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-372C-48BD-9A83-3E350F7A78F7}"/>
             </c:ext>
@@ -556,11 +513,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1284698079"/>
-        <c:axId val="1284698911"/>
+        <c:axId val="28762880"/>
+        <c:axId val="28764800"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1284698079"/>
+        <c:axId val="28762880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -603,7 +560,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1284698911"/>
+        <c:crossAx val="28764800"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -611,7 +568,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1284698911"/>
+        <c:axId val="28764800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -662,7 +619,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1284698079"/>
+        <c:crossAx val="28762880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -708,12 +665,12 @@
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
-  <c:userShapes r:id="rId3"/>
+  <c:userShapes r:id="rId1"/>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -787,7 +744,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-4BED-49F4-896A-CC565879877E}"/>
             </c:ext>
@@ -801,12 +758,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1276226111"/>
-        <c:axId val="1276227359"/>
+        <c:axId val="70975488"/>
+        <c:axId val="70977024"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1276226111"/>
+        <c:axId val="70975488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -878,7 +836,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1276227359"/>
+        <c:crossAx val="70977024"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -886,7 +844,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1276227359"/>
+        <c:axId val="70977024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -938,7 +896,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1276226111"/>
+        <c:crossAx val="70975488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -994,12 +952,12 @@
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
-  <c:userShapes r:id="rId3"/>
+  <c:userShapes r:id="rId1"/>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -1061,36 +1019,20 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="lt1">
-                  <a:lumMod val="95000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:effectLst>
-                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
-                  <a:prstClr val="black">
-                    <a:alpha val="40000"/>
-                  </a:prstClr>
-                </a:outerShdw>
-              </a:effectLst>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="ru-RU"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="9.1914260717410323E-2"/>
+          <c:y val="0.18300925925925926"/>
+          <c:w val="0.87753018372703417"/>
+          <c:h val="0.70959135316418775"/>
+        </c:manualLayout>
+      </c:layout>
       <c:lineChart>
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
@@ -1158,7 +1100,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-FFAE-4168-87C7-A61B1F445DC7}"/>
             </c:ext>
@@ -1172,12 +1114,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1379321263"/>
-        <c:axId val="1379322927"/>
+        <c:axId val="71076096"/>
+        <c:axId val="71081984"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1379321263"/>
+        <c:axId val="71076096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1219,7 +1162,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1379322927"/>
+        <c:crossAx val="71081984"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1227,7 +1170,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1379322927"/>
+        <c:axId val="71081984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1277,7 +1220,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1379321263"/>
+        <c:crossAx val="71076096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1334,7 +1277,7 @@
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
-  <c:userShapes r:id="rId3"/>
+  <c:userShapes r:id="rId1"/>
 </c:chartSpace>
 </file>
 
@@ -3630,12 +3573,12 @@
   </cdr:relSizeAnchor>
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.8239</cdr:x>
-      <cdr:y>0.75969</cdr:y>
+      <cdr:x>0.72866</cdr:x>
+      <cdr:y>0.65624</cdr:y>
     </cdr:from>
     <cdr:to>
       <cdr:x>1</cdr:x>
-      <cdr:y>0.85658</cdr:y>
+      <cdr:y>0.84291</cdr:y>
     </cdr:to>
     <cdr:sp macro="" textlink="">
       <cdr:nvSpPr>
@@ -3644,8 +3587,8 @@
       </cdr:nvSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="3743326" y="1866910"/>
-          <a:ext cx="800099" cy="238103"/>
+          <a:off x="3352263" y="1631432"/>
+          <a:ext cx="1248311" cy="464067"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <a:avLst/>
@@ -3657,8 +3600,19 @@
         <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:r>
             <a:rPr lang="ru-RU" sz="1100"/>
-            <a:t>Итерации</a:t>
+            <a:t>Размер</a:t>
           </a:r>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1100" baseline="0"/>
+            <a:t> массива</a:t>
+          </a:r>
+        </a:p>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1100" baseline="0"/>
+            <a:t>(100К элементов)</a:t>
+          </a:r>
+          <a:endParaRPr lang="ru-RU" sz="1100"/>
         </a:p>
       </cdr:txBody>
     </cdr:sp>
@@ -3869,13 +3823,43 @@
           </a:lvl9pPr>
         </a:lstStyle>
         <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:r>
-            <a:rPr lang="ru-RU" sz="1100"/>
-            <a:t>Итерации</a:t>
-          </a:r>
+          <a:endParaRPr lang="ru-RU" sz="1100"/>
         </a:p>
       </cdr:txBody>
     </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.73896</cdr:x>
+      <cdr:y>0.72222</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.99344</cdr:x>
+      <cdr:y>0.89335</cdr:y>
+    </cdr:to>
+    <cdr:pic>
+      <cdr:nvPicPr>
+        <cdr:cNvPr id="2" name="chart"/>
+        <cdr:cNvPicPr>
+          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1"/>
+        </cdr:cNvPicPr>
+      </cdr:nvPicPr>
+      <cdr:blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </cdr:blipFill>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="3505200" y="1981200"/>
+          <a:ext cx="1207113" cy="469433"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+    </cdr:pic>
   </cdr:relSizeAnchor>
 </c:userShapes>
 </file>
@@ -3973,10 +3957,7 @@
           </a:lvl9pPr>
         </a:lstStyle>
         <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:r>
-            <a:rPr lang="ru-RU" sz="1100"/>
-            <a:t>Итерации</a:t>
-          </a:r>
+          <a:endParaRPr lang="ru-RU" sz="1100"/>
         </a:p>
       </cdr:txBody>
     </cdr:sp>
@@ -4125,6 +4106,39 @@
       </cdr:txBody>
     </cdr:sp>
   </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.71875</cdr:x>
+      <cdr:y>0.70139</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.98277</cdr:x>
+      <cdr:y>0.87251</cdr:y>
+    </cdr:to>
+    <cdr:pic>
+      <cdr:nvPicPr>
+        <cdr:cNvPr id="5" name="chart"/>
+        <cdr:cNvPicPr>
+          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1"/>
+        </cdr:cNvPicPr>
+      </cdr:nvPicPr>
+      <cdr:blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </cdr:blipFill>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="3286125" y="1924050"/>
+          <a:ext cx="1207113" cy="469433"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+    </cdr:pic>
+  </cdr:relSizeAnchor>
 </c:userShapes>
 </file>
 
@@ -4221,14 +4235,11 @@
           </a:lvl9pPr>
         </a:lstStyle>
         <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:r>
-            <a:rPr lang="ru-RU" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>итерации</a:t>
-          </a:r>
+          <a:endParaRPr lang="ru-RU" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
         </a:p>
       </cdr:txBody>
     </cdr:sp>
@@ -4349,6 +4360,68 @@
               </a:solidFill>
             </a:rPr>
             <a:t>программы</a:t>
+          </a:r>
+          <a:endParaRPr lang="ru-RU" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.71875</cdr:x>
+      <cdr:y>0.74306</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.98958</cdr:x>
+      <cdr:y>0.95486</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="5" name="TextBox 4"/>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="3286125" y="2038349"/>
+          <a:ext cx="1238250" cy="581025"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="square" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>размер</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> массива</a:t>
+          </a:r>
+        </a:p>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>(100К элементов)</a:t>
           </a:r>
           <a:endParaRPr lang="ru-RU" sz="1100">
             <a:solidFill>
@@ -4617,7 +4690,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -4627,8 +4700,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="W26" sqref="W26"/>
+    <sheetView tabSelected="1" topLeftCell="J14" workbookViewId="0">
+      <selection activeCell="L24" sqref="L24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
